--- a/doc/UX/Journal-de-Travail_NomPrénom_Model.xlsx
+++ b/doc/UX/Journal-de-Travail_NomPrénom_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po42oio\Documents\GitHub\P_DB106\doc\UX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po42oio\Documents\GitHub\OceanInvader\doc\UX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D230AEA7-42C8-4A68-B37A-EAFAF37C10C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC0E307-6DB2-446A-B0A2-CF9E9BD4ED67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="2580" windowWidth="23865" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Auteur:</t>
   </si>
@@ -139,7 +139,13 @@
     <t>Création de la ToDoList et du journal de travaille</t>
   </si>
   <si>
-    <t xml:space="preserve">Réalisation des personas sur figm, Le jeune de 15 ans est presque terminé </t>
+    <t xml:space="preserve">Réalisation des personas sur figma, Le jeune de 15 ans est presque terminé </t>
+  </si>
+  <si>
+    <t>Création du deuxième persona, Elise, 27 ans</t>
+  </si>
+  <si>
+    <t>Commencement du menu principal en WireFrame</t>
   </si>
 </sst>
 </file>
@@ -4126,7 +4132,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4181,7 +4187,7 @@
       <c r="B3" s="82"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>1 heures 0 minutes</v>
+        <v>2 heures 30 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4196,15 +4202,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="19">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4286,15 +4292,21 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="str">
+      <c r="A9" s="74">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="40">
+        <v>45541</v>
+      </c>
+      <c r="C9" s="41">
+        <v>1</v>
+      </c>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="46"/>
       <c r="M9" t="s">
         <v>19</v>
@@ -4307,15 +4319,21 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="str">
+      <c r="A10" s="73">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="36"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="36">
+        <v>45541</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="38">
+        <v>30</v>
+      </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="45"/>
       <c r="M10" t="s">
         <v>3</v>
@@ -10983,6 +11001,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11177,27 +11215,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11214,25 +11253,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>